--- a/mitochondria distance/010725_mito_OA/3K_no_OA_settings_analysis_by_image.xlsx
+++ b/mitochondria distance/010725_mito_OA/3K_no_OA_settings_analysis_by_image.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,17 +458,277 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>3K_Lipidtox_01</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>3K_mitotracker_01</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B3" t="n">
         <v>0.1978723404255319</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>0.2826681246582832</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.04447302251482754</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_01</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5909610983981693</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3151666147617564</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03724517348454165</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_02</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1935034802784223</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2259956942949408</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02493297156710068</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_03</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
+        <v>0.0130184331797235</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.01686638028487452</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_04</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.09606540623403168</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.05093347833967736</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.01461795770010799</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_05</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1026490066225166</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.06378066378066378</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.009872952701668453</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_06</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.08779661016949153</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1163561301537292</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.05035557537493839</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_07</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>0.1529457528820992</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.005504232787201854</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_08</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1823034284541162</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1428254273662399</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.06747647011503499</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_09</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.06572215663124754</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1528059499661934</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.05427855850841798</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_10</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.07182718271827182</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1295694557270512</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.02625466319420004</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_12</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>0.03081253240500703</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_13</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.005956320317670417</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0007380073800738007</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.08356531862124816</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_14</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.07125890736342043</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4306270472625175</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.05750772055754946</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_15</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1357395056885053</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.02890478186218179</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3K_mitotracker_Lipidtox_16</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.06362329259525522</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4196843082636955</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.05942853755409331</v>
       </c>
     </row>
   </sheetData>
